--- a/src/test/resources/parse-test-data-half-correct.xlsx
+++ b/src/test/resources/parse-test-data-half-correct.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Primitive Int</t>
   </si>
@@ -41,6 +41,9 @@
   <si>
     <t>abc</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -51,13 +54,13 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -65,7 +68,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -73,7 +76,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -115,23 +118,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -460,18 +468,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,8 +490,11 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -491,6 +503,9 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>40494.551562499997</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/parse-test-data-half-correct.xlsx
+++ b/src/test/resources/parse-test-data-half-correct.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Primitive Int</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Another Fake Column</t>
+  </si>
+  <si>
+    <t>Some Value</t>
   </si>
 </sst>
 </file>
@@ -118,8 +127,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -132,13 +145,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -468,19 +485,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,8 +511,14 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -506,6 +530,9 @@
       </c>
       <c r="D2" s="2">
         <v>40494.551562499997</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
